--- a/scraper/top_remaining_spreadsheets_states/top_remaining_GA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_GA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>STATE</t>
   </si>
@@ -44,40 +44,46 @@
     <t>ULTIMATE BANKROLL</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5X THE MONEY                 </t>
+  </si>
+  <si>
+    <t>$7,000 BANKROLL</t>
+  </si>
+  <si>
+    <t>Xtra BONUS</t>
+  </si>
+  <si>
+    <t>Lucky You</t>
+  </si>
+  <si>
+    <t>MONOPOLY 5X</t>
+  </si>
+  <si>
+    <t>#scratch</t>
+  </si>
+  <si>
+    <t>$5,000 BONUS CASH</t>
+  </si>
+  <si>
+    <t>Super HOT 7's</t>
+  </si>
+  <si>
+    <t>Junior JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>LOOSE CHANGE</t>
+  </si>
+  <si>
+    <t>5X THE MONEY</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">5X THE MONEY                 </t>
-  </si>
-  <si>
-    <t>$7,000 BANKROLL</t>
-  </si>
-  <si>
-    <t>Xtra BONUS</t>
-  </si>
-  <si>
-    <t>Lucky You</t>
-  </si>
-  <si>
-    <t>MONOPOLY 5X</t>
-  </si>
-  <si>
-    <t>#scratch</t>
-  </si>
-  <si>
-    <t>$5,000 BONUS CASH</t>
-  </si>
-  <si>
-    <t>Super HOT 7's</t>
-  </si>
-  <si>
-    <t>5X THE MONEY</t>
-  </si>
-  <si>
-    <t>Junior JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>LOOSE CHANGE</t>
+    <t>Love to win Doubler/Lucky Gre</t>
   </si>
   <si>
     <t>EZ MONEY</t>
@@ -86,9 +92,6 @@
     <t>CA$H 3</t>
   </si>
   <si>
-    <t>Love to win Doubler/Lucky Gre</t>
-  </si>
-  <si>
     <t>7 TIMES LUCKY</t>
   </si>
   <si>
@@ -125,10 +128,13 @@
     <t>Jingle JUMBO BUCKS</t>
   </si>
   <si>
+    <t>FAST MONEY</t>
+  </si>
+  <si>
     <t>QUICK CA$H</t>
   </si>
   <si>
-    <t>FAST MONEY</t>
+    <t>MONOPOLY 10X</t>
   </si>
   <si>
     <t>GEORGIA LOTTERY MEGA MILLIONS</t>
@@ -137,37 +143,37 @@
     <t>$40,000 LUCKY</t>
   </si>
   <si>
-    <t>MONOPOLY 10X</t>
-  </si>
-  <si>
     <t>MAD MONEY</t>
   </si>
   <si>
     <t>PAYDAY DOUBLER</t>
   </si>
   <si>
+    <t>CA$HWORD VIII</t>
+  </si>
+  <si>
+    <t>$17,000,000 CASH PAYOUT!</t>
+  </si>
+  <si>
+    <t>10X THE MONEY</t>
+  </si>
+  <si>
+    <t>JUMBO BUCKS Classic</t>
+  </si>
+  <si>
+    <t>ATLANTA UNITED FC</t>
+  </si>
+  <si>
+    <t>GREEN &amp; GOLD</t>
+  </si>
+  <si>
+    <t>EASY $50</t>
+  </si>
+  <si>
     <t>LOTERIA</t>
   </si>
   <si>
-    <t>$17,000,000 CASH PAYOUT!</t>
-  </si>
-  <si>
-    <t>CA$HWORD VIII</t>
-  </si>
-  <si>
-    <t>JUMBO BUCKS Classic</t>
-  </si>
-  <si>
-    <t>GREEN &amp; GOLD</t>
-  </si>
-  <si>
-    <t>ATLANTA UNITED FC</t>
-  </si>
-  <si>
-    <t>10X THE MONEY</t>
-  </si>
-  <si>
-    <t>EASY $50</t>
+    <t>MONEY TIME</t>
   </si>
   <si>
     <t>JUMBO BUCKS LOTTO WITH Ca$h M</t>
@@ -176,9 +182,6 @@
     <t>QUICK $20'S</t>
   </si>
   <si>
-    <t>MONEY TIME</t>
-  </si>
-  <si>
     <t>$2 Special Edition JUMBO BUCK</t>
   </si>
   <si>
@@ -200,57 +203,57 @@
     <t>PATH TO RICHES</t>
   </si>
   <si>
+    <t>15x The Money Exclusive</t>
+  </si>
+  <si>
+    <t>X The Money Bingo</t>
+  </si>
+  <si>
+    <t>SKEE-BALL</t>
+  </si>
+  <si>
+    <t>Celebrate 2019</t>
+  </si>
+  <si>
+    <t>15X THE MONEY EXCLUSIVE</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>Lady JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>JUMBO BUCKS Crossword</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks Crossword</t>
+  </si>
+  <si>
+    <t>$3 COMBO PLAY GAME</t>
+  </si>
+  <si>
+    <t>15x The Money</t>
+  </si>
+  <si>
+    <t>15X THE MONEY</t>
+  </si>
+  <si>
+    <t>Cherry, Orange, Lemon, Triple</t>
+  </si>
+  <si>
+    <t>Lady Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>25th Anniversary</t>
+  </si>
+  <si>
+    <t>$150,000 BIG Game</t>
+  </si>
+  <si>
     <t>Holiday Gifts</t>
   </si>
   <si>
-    <t>15x The Money Exclusive</t>
-  </si>
-  <si>
-    <t>X The Money Bingo</t>
-  </si>
-  <si>
-    <t>SKEE-BALL</t>
-  </si>
-  <si>
-    <t>15X THE MONEY EXCLUSIVE</t>
-  </si>
-  <si>
-    <t>Celebrate 2019</t>
-  </si>
-  <si>
-    <t>Lady JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>JUMBO BUCKS Crossword</t>
-  </si>
-  <si>
-    <t>UNO</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks Crossword</t>
-  </si>
-  <si>
-    <t>$3 COMBO PLAY GAME</t>
-  </si>
-  <si>
-    <t>15x The Money</t>
-  </si>
-  <si>
-    <t>15X THE MONEY</t>
-  </si>
-  <si>
-    <t>Cherry, Orange, Lemon, Triple</t>
-  </si>
-  <si>
-    <t>Lady Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>25th Anniversary</t>
-  </si>
-  <si>
-    <t>$150,000 BIG Game</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -260,10 +263,13 @@
     <t>$500,000 ALL CASH NO TAXES!</t>
   </si>
   <si>
+    <t>POWER 5's</t>
+  </si>
+  <si>
     <t>$5 25TH Anniversary</t>
   </si>
   <si>
-    <t>POWER 5's</t>
+    <t>MONOPOLY 20X</t>
   </si>
   <si>
     <t>The Atlanta Falcons</t>
@@ -272,9 +278,6 @@
     <t xml:space="preserve">20X THE MONEY                </t>
   </si>
   <si>
-    <t>MONOPOLY 20X</t>
-  </si>
-  <si>
     <t>Lucky 7's COMBO Play</t>
   </si>
   <si>
@@ -464,10 +467,10 @@
     <t>BREAK THE BANK</t>
   </si>
   <si>
+    <t>$25 25TH Anniversary</t>
+  </si>
+  <si>
     <t>Royal JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>$25 25TH Anniversary</t>
   </si>
   <si>
     <t>GEORGIA'S SUPER HIT!</t>
@@ -1049,10 +1052,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1069,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1410</v>
+        <v>1379</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1089,13 +1092,13 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1379</v>
+        <v>1417</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1106,13 +1109,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>1321</v>
+        <v>1384</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1126,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>1247</v>
+        <v>1321</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1146,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>1384</v>
+        <v>1247</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1166,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>1365</v>
@@ -1186,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>1001</v>
@@ -1206,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>1369</v>
@@ -1226,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>1346</v>
@@ -1246,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>1356</v>
@@ -1263,10 +1266,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>1424</v>
@@ -1283,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>1351</v>
@@ -1303,10 +1306,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>1109</v>
@@ -1323,10 +1326,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>1357</v>
@@ -1343,10 +1346,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>1361</v>
@@ -1363,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>1312</v>
@@ -1383,16 +1386,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>1431</v>
+        <v>1375</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1403,16 +1406,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>1375</v>
+        <v>1431</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1423,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>1319</v>
+        <v>1389</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1443,16 +1446,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>1347</v>
+        <v>1319</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1463,16 +1466,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>1389</v>
+        <v>1347</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1483,10 +1486,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>1385</v>
@@ -1503,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>1339</v>
@@ -1523,16 +1526,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>1322</v>
+        <v>1427</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1543,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>1256</v>
@@ -1563,16 +1566,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1583,16 +1586,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38">
         <v>1411</v>
       </c>
       <c r="E38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1603,16 +1606,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1623,16 +1626,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1643,16 +1646,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>1418</v>
+        <v>1449</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1663,16 +1666,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>1449</v>
+        <v>1322</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1683,13 +1686,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>1299</v>
+        <v>1442</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1703,19 +1706,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>1445</v>
+        <v>1299</v>
       </c>
       <c r="E44">
-        <v>27084</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1723,16 +1726,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>24259</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1743,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>1366</v>
@@ -1763,10 +1766,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>1009</v>
@@ -1783,10 +1786,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>1380</v>
@@ -1803,10 +1806,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <v>1002</v>
@@ -1823,10 +1826,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>1370</v>
@@ -1843,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51">
         <v>1362</v>
@@ -1863,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>1371</v>
+        <v>1155</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1883,16 +1886,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>1155</v>
+        <v>1194</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1903,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54">
-        <v>1194</v>
+        <v>1352</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1923,13 +1926,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>1352</v>
+        <v>1376</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1943,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <v>1420</v>
@@ -1963,13 +1966,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1983,10 +1986,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58">
         <v>1413</v>
@@ -2003,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>1412</v>
@@ -2023,13 +2026,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>1381</v>
+        <v>1045</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2043,16 +2046,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>1045</v>
+        <v>1294</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -2063,16 +2066,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>1294</v>
+        <v>1095</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2083,16 +2086,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63">
-        <v>1095</v>
+        <v>1419</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2103,16 +2106,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2123,16 +2126,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>1425</v>
+        <v>1062</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2143,16 +2146,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66">
-        <v>1062</v>
+        <v>1340</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2163,13 +2166,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2183,13 +2186,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68">
-        <v>1358</v>
+        <v>1371</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2203,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>1262</v>
@@ -2223,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70">
         <v>1329</v>
@@ -2243,16 +2246,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71">
-        <v>1297</v>
+        <v>1386</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2263,16 +2266,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72">
-        <v>1386</v>
+        <v>1297</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2283,16 +2286,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D73">
-        <v>1300</v>
+        <v>1390</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2303,16 +2306,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D74">
-        <v>1010</v>
+        <v>1300</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2323,16 +2326,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75">
-        <v>1390</v>
+        <v>1010</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2343,10 +2346,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>1316</v>
@@ -2363,10 +2366,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>1257</v>
@@ -2383,10 +2386,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D78">
         <v>1421</v>
@@ -2403,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <v>1396</v>
@@ -2423,10 +2426,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D80">
         <v>1444</v>
@@ -2443,16 +2446,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <v>1426</v>
       </c>
       <c r="E81">
-        <v>11710</v>
+        <v>11361</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2463,10 +2466,10 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>1287</v>
@@ -2483,10 +2486,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83">
         <v>1414</v>
@@ -2503,16 +2506,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84">
         <v>1377</v>
       </c>
       <c r="E84">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2523,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D85">
         <v>1324</v>
@@ -2543,10 +2546,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D86">
         <v>1249</v>
@@ -2563,10 +2566,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D87">
         <v>1382</v>
@@ -2583,16 +2586,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D88">
         <v>1446</v>
       </c>
       <c r="E88">
-        <v>3359</v>
+        <v>3163</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2603,10 +2606,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89">
         <v>1275</v>
@@ -2623,10 +2626,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D90">
         <v>1120</v>
@@ -2643,10 +2646,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91">
         <v>1367</v>
@@ -2663,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92">
         <v>1363</v>
@@ -2683,10 +2686,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D93">
         <v>1292</v>
@@ -2703,10 +2706,10 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D94">
         <v>1372</v>
@@ -2723,10 +2726,10 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D95">
         <v>1353</v>
@@ -2743,10 +2746,10 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D96">
         <v>1348</v>
@@ -2763,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>1341</v>
@@ -2783,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D98">
         <v>1359</v>
@@ -2803,10 +2806,10 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D99">
         <v>1336</v>
@@ -2823,10 +2826,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100">
         <v>1330</v>
@@ -2843,10 +2846,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D101">
         <v>1280</v>
@@ -2863,10 +2866,10 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D102">
         <v>1011</v>
@@ -2883,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D103">
         <v>1199</v>
@@ -2903,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D104">
         <v>1005</v>
@@ -2923,10 +2926,10 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D105">
         <v>1368</v>
@@ -2943,10 +2946,10 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D106">
         <v>1387</v>
@@ -2963,10 +2966,10 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107">
         <v>1383</v>
@@ -2983,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D108">
         <v>1391</v>
@@ -3003,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D109">
         <v>1415</v>
@@ -3023,10 +3026,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D110">
         <v>1447</v>
@@ -3043,16 +3046,16 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D111">
         <v>1227</v>
       </c>
       <c r="E111">
-        <v>62907</v>
+        <v>60177</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3063,10 +3066,10 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D112">
         <v>1326</v>
@@ -3083,10 +3086,10 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D113">
         <v>1422</v>
@@ -3103,10 +3106,10 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D114">
         <v>1373</v>
@@ -3123,10 +3126,10 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D115">
         <v>1432</v>
@@ -3143,10 +3146,10 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D116">
         <v>1354</v>
@@ -3163,10 +3166,10 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D117">
         <v>1301</v>
@@ -3183,10 +3186,10 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D118">
         <v>1345</v>
@@ -3203,10 +3206,10 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119">
         <v>1100</v>
@@ -3223,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D120">
         <v>1307</v>
@@ -3243,10 +3246,10 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D121">
         <v>1285</v>
@@ -3263,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122">
         <v>1360</v>
@@ -3283,10 +3286,10 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123">
         <v>1006</v>
@@ -3303,16 +3306,16 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124">
         <v>1364</v>
       </c>
       <c r="E124">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3323,10 +3326,10 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125">
         <v>1397</v>
@@ -3343,16 +3346,16 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D126">
         <v>1276</v>
       </c>
       <c r="E126">
-        <v>13911</v>
+        <v>12995</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3363,10 +3366,10 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D127">
         <v>1258</v>
@@ -3383,10 +3386,10 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128">
         <v>1150</v>
@@ -3403,10 +3406,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129">
         <v>1423</v>
@@ -3423,10 +3426,10 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D130">
         <v>1374</v>
@@ -3443,10 +3446,10 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D131">
         <v>1142</v>
@@ -3463,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D132">
         <v>1342</v>
@@ -3483,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D133">
         <v>1030</v>
@@ -3503,10 +3506,10 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D134">
         <v>1349</v>
@@ -3523,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D135">
         <v>1331</v>
@@ -3543,16 +3546,16 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D136">
-        <v>1392</v>
+        <v>1296</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
         <v>9</v>
@@ -3563,19 +3566,19 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D137">
-        <v>1296</v>
+        <v>1392</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3583,10 +3586,10 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D138">
         <v>1271</v>
@@ -3603,10 +3606,10 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D139">
         <v>1315</v>
@@ -3623,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D140">
         <v>1378</v>
@@ -3643,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D141">
         <v>1355</v>
@@ -3663,10 +3666,10 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D142">
         <v>1308</v>
@@ -3683,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D143">
         <v>1443</v>
@@ -3703,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D144">
         <v>1263</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_GA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_GA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>STATE</t>
   </si>
@@ -41,15 +41,12 @@
     <t>$1.00 Games</t>
   </si>
   <si>
-    <t>ULTIMATE BANKROLL</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">5X THE MONEY                 </t>
   </si>
   <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>$7,000 BANKROLL</t>
   </si>
   <si>
@@ -59,51 +56,45 @@
     <t>Lucky You</t>
   </si>
   <si>
+    <t>LOOSE CHANGE</t>
+  </si>
+  <si>
+    <t>$5,000 BONUS CASH</t>
+  </si>
+  <si>
+    <t>#scratch</t>
+  </si>
+  <si>
+    <t>$50 STACKED</t>
+  </si>
+  <si>
+    <t>Super HOT 7's</t>
+  </si>
+  <si>
+    <t>5X THE MONEY</t>
+  </si>
+  <si>
+    <t>Junior JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>EZ MONEY</t>
+  </si>
+  <si>
+    <t>7 TIMES LUCKY</t>
+  </si>
+  <si>
     <t>MONOPOLY 5X</t>
   </si>
   <si>
-    <t>#scratch</t>
-  </si>
-  <si>
-    <t>$5,000 BONUS CASH</t>
-  </si>
-  <si>
-    <t>Super HOT 7's</t>
-  </si>
-  <si>
-    <t>Junior JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>LOOSE CHANGE</t>
-  </si>
-  <si>
-    <t>5X THE MONEY</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
+    <t xml:space="preserve">JUNIOR JUMBO BUCKS           </t>
   </si>
   <si>
     <t>Love to win Doubler/Lucky Gre</t>
   </si>
   <si>
-    <t>EZ MONEY</t>
-  </si>
-  <si>
-    <t>CA$H 3</t>
-  </si>
-  <si>
-    <t>7 TIMES LUCKY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNIOR JUMBO BUCKS           </t>
-  </si>
-  <si>
     <t>Golden Wishes</t>
   </si>
   <si>
-    <t>$5,000! FIRECRACKER</t>
-  </si>
-  <si>
     <t>$20,000 BIG Game</t>
   </si>
   <si>
@@ -116,231 +107,213 @@
     <t>DIAMONDS &amp; GOLD</t>
   </si>
   <si>
+    <t>Easy as ... 1 2 3</t>
+  </si>
+  <si>
     <t>Cashword VII</t>
   </si>
   <si>
+    <t>Jingle JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>QUICK CA$H</t>
+  </si>
+  <si>
+    <t>$40,000 LUCKY</t>
+  </si>
+  <si>
     <t>$50,000 BIG Game</t>
   </si>
   <si>
-    <t>Easy as ... 1 2 3</t>
-  </si>
-  <si>
-    <t>Jingle JUMBO BUCKS</t>
+    <t>MONOPOLY 10X</t>
+  </si>
+  <si>
+    <t>MAD MONEY</t>
+  </si>
+  <si>
+    <t>LOTERIA</t>
+  </si>
+  <si>
+    <t>CA$HWORD VIII</t>
+  </si>
+  <si>
+    <t>JUMBO BUCKS Classic</t>
+  </si>
+  <si>
+    <t>$100 STACKED</t>
+  </si>
+  <si>
+    <t>GREEN &amp; GOLD</t>
+  </si>
+  <si>
+    <t>JUMBO BUCKS LOTTO WITH Ca$h M</t>
+  </si>
+  <si>
+    <t>MONEY TIME</t>
   </si>
   <si>
     <t>FAST MONEY</t>
   </si>
   <si>
-    <t>QUICK CA$H</t>
-  </si>
-  <si>
-    <t>MONOPOLY 10X</t>
-  </si>
-  <si>
-    <t>GEORGIA LOTTERY MEGA MILLIONS</t>
-  </si>
-  <si>
-    <t>$40,000 LUCKY</t>
-  </si>
-  <si>
-    <t>MAD MONEY</t>
+    <t>GEORGIA LOTTERY POWERBALL wit</t>
+  </si>
+  <si>
+    <t>QUICK $20'S</t>
+  </si>
+  <si>
+    <t>10X THE MONEY</t>
+  </si>
+  <si>
+    <t>ATLANTA UNITED FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10X THE MONEY                </t>
+  </si>
+  <si>
+    <t>EASY $50</t>
+  </si>
+  <si>
+    <t>$2 Special Edition JUMBO BUCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMBO BUCKS CLASSIC          </t>
+  </si>
+  <si>
+    <t>Holiday Cash Multiplier</t>
   </si>
   <si>
     <t>PAYDAY DOUBLER</t>
   </si>
   <si>
-    <t>CA$HWORD VIII</t>
-  </si>
-  <si>
-    <t>$17,000,000 CASH PAYOUT!</t>
-  </si>
-  <si>
-    <t>10X THE MONEY</t>
-  </si>
-  <si>
-    <t>JUMBO BUCKS Classic</t>
-  </si>
-  <si>
-    <t>ATLANTA UNITED FC</t>
-  </si>
-  <si>
-    <t>GREEN &amp; GOLD</t>
-  </si>
-  <si>
-    <t>EASY $50</t>
-  </si>
-  <si>
-    <t>LOTERIA</t>
-  </si>
-  <si>
-    <t>MONEY TIME</t>
-  </si>
-  <si>
-    <t>JUMBO BUCKS LOTTO WITH Ca$h M</t>
-  </si>
-  <si>
-    <t>QUICK $20'S</t>
-  </si>
-  <si>
-    <t>$2 Special Edition JUMBO BUCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X THE MONEY                </t>
-  </si>
-  <si>
-    <t>GEORGIA LOTTERY POWERBALL wit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMBO BUCKS CLASSIC          </t>
-  </si>
-  <si>
-    <t>Holiday Cash Multiplier</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>15x The Money Exclusive</t>
+  </si>
+  <si>
+    <t>SKEE-BALL</t>
+  </si>
+  <si>
+    <t>Celebrate 2019</t>
+  </si>
+  <si>
+    <t>15X THE MONEY EXCLUSIVE</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>Lady JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>JUMBO BUCKS Crossword</t>
+  </si>
+  <si>
+    <t>15X THE MONEY</t>
+  </si>
+  <si>
+    <t>$3 COMBO PLAY GAME</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks Crossword</t>
+  </si>
+  <si>
+    <t>Cherry, Orange, Lemon, Triple</t>
+  </si>
+  <si>
+    <t>15x The Money</t>
+  </si>
+  <si>
+    <t>Lady Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>25th Anniversary</t>
+  </si>
+  <si>
+    <t>$150,000 BIG Game</t>
+  </si>
+  <si>
+    <t>Holiday Gifts</t>
+  </si>
+  <si>
     <t>PATH TO RICHES</t>
   </si>
   <si>
-    <t>15x The Money Exclusive</t>
-  </si>
-  <si>
-    <t>X The Money Bingo</t>
-  </si>
-  <si>
-    <t>SKEE-BALL</t>
-  </si>
-  <si>
-    <t>Celebrate 2019</t>
-  </si>
-  <si>
-    <t>15X THE MONEY EXCLUSIVE</t>
-  </si>
-  <si>
-    <t>UNO</t>
-  </si>
-  <si>
-    <t>Lady JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>JUMBO BUCKS Crossword</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks Crossword</t>
-  </si>
-  <si>
-    <t>$3 COMBO PLAY GAME</t>
-  </si>
-  <si>
-    <t>15x The Money</t>
-  </si>
-  <si>
-    <t>15X THE MONEY</t>
-  </si>
-  <si>
-    <t>Cherry, Orange, Lemon, Triple</t>
-  </si>
-  <si>
-    <t>Lady Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>25th Anniversary</t>
-  </si>
-  <si>
-    <t>$150,000 BIG Game</t>
-  </si>
-  <si>
-    <t>Holiday Gifts</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
     <t>$500,000 GOLD RUSH!</t>
   </si>
   <si>
+    <t>POWER 5's</t>
+  </si>
+  <si>
     <t>$500,000 ALL CASH NO TAXES!</t>
   </si>
   <si>
-    <t>POWER 5's</t>
-  </si>
-  <si>
     <t>$5 25TH Anniversary</t>
   </si>
   <si>
     <t>MONOPOLY 20X</t>
   </si>
   <si>
+    <t>Lucky 7's COMBO Play</t>
+  </si>
+  <si>
     <t>The Atlanta Falcons</t>
   </si>
   <si>
     <t xml:space="preserve">20X THE MONEY                </t>
   </si>
   <si>
-    <t>Lucky 7's COMBO Play</t>
+    <t>ALL CASH CLUB</t>
   </si>
   <si>
     <t>$37,000,000 CASH PAYOUT!</t>
   </si>
   <si>
+    <t>THE MONEY GAME</t>
+  </si>
+  <si>
     <t>20X THE MONEY</t>
   </si>
   <si>
-    <t>ALL CASH CLUB</t>
+    <t>GIANT JUMBO BUCKS</t>
   </si>
   <si>
     <t>FOR THE WIN!</t>
   </si>
   <si>
+    <t>$500 STACKED</t>
+  </si>
+  <si>
     <t>HIT $500!</t>
   </si>
   <si>
-    <t>$500,000 BONUS</t>
-  </si>
-  <si>
-    <t>GIANT JUMBO BUCKS</t>
+    <t>LOTS of $10,000!</t>
   </si>
   <si>
     <t>Lots of $500s SPECIAL EDITION</t>
   </si>
   <si>
-    <t>LOTS of $10,000!</t>
-  </si>
-  <si>
-    <t>PAY ME!</t>
-  </si>
-  <si>
-    <t>THE MONEY GAME</t>
+    <t>RAPID 7'S</t>
   </si>
   <si>
     <t>QUICK $50's</t>
   </si>
   <si>
-    <t>RAPID 7'S</t>
-  </si>
-  <si>
     <t>Hit $500!</t>
   </si>
   <si>
     <t>$5 Special Edition JUMBO BUCK</t>
   </si>
   <si>
-    <t>ATLANTA FALCONS</t>
-  </si>
-  <si>
-    <t>WIN BIG</t>
-  </si>
-  <si>
     <t>Happy Holidays</t>
   </si>
   <si>
     <t>High Roller</t>
   </si>
   <si>
-    <t>WILD BONANZA MULTIPLIER</t>
-  </si>
-  <si>
     <t>$350,000 GOLD Mine</t>
   </si>
   <si>
@@ -368,48 +341,45 @@
     <t xml:space="preserve">JUMBO JUMBO BUCKS            </t>
   </si>
   <si>
+    <t>CASH BLAST</t>
+  </si>
+  <si>
     <t>Royal RICHES</t>
   </si>
   <si>
+    <t>JUMBO JUMBO BUCKS</t>
+  </si>
+  <si>
     <t>$1,000,000 GOLD RUSH</t>
   </si>
   <si>
-    <t>CASH BLAST</t>
+    <t>$100 MILLION CASH EXTREME!</t>
+  </si>
+  <si>
+    <t>$1,000 STACKED</t>
+  </si>
+  <si>
+    <t>WIN EITHER $50 OR $100</t>
+  </si>
+  <si>
+    <t>HIT THE JACKPOT</t>
   </si>
   <si>
     <t>MONOPOLY 50X</t>
   </si>
   <si>
-    <t>JUMBO JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>HIT THE JACKPOT</t>
-  </si>
-  <si>
-    <t>WIN EITHER $50 OR $100</t>
-  </si>
-  <si>
-    <t>$100 MILLION CASH EXTREME!</t>
-  </si>
-  <si>
     <t>50X THE MONEY</t>
   </si>
   <si>
     <t>50X THE MONEY SPECIAL HOLIDAY</t>
   </si>
   <si>
-    <t>$1,000,000 Cash Blowout</t>
-  </si>
-  <si>
     <t>FABULOUS FORTUNES</t>
   </si>
   <si>
     <t>$1,000,000 777 SLOTS of LUCK</t>
   </si>
   <si>
-    <t>$1,000 LOADED!</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -422,45 +392,39 @@
     <t>GRAND MONEY</t>
   </si>
   <si>
+    <t>Millionaire Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>BIG MONEY BONUS</t>
+  </si>
+  <si>
+    <t>LOTS of $25,000!</t>
+  </si>
+  <si>
+    <t>$100 OR $200!</t>
+  </si>
+  <si>
+    <t>Monopoly Millionaire</t>
+  </si>
+  <si>
+    <t>$77,000,000 CASH PAYOUT!</t>
+  </si>
+  <si>
+    <t>100X THE MONEY</t>
+  </si>
+  <si>
+    <t>Millionaire JINGLE JUMBO BUCK</t>
+  </si>
+  <si>
+    <t>Caesar's</t>
+  </si>
+  <si>
+    <t>MAX-A-MILLION</t>
+  </si>
+  <si>
     <t>$2,000,000 BIG Game</t>
   </si>
   <si>
-    <t>Millionaire Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>LOTS of $25,000!</t>
-  </si>
-  <si>
-    <t>BIG MONEY BONUS</t>
-  </si>
-  <si>
-    <t>$100 OR $200!</t>
-  </si>
-  <si>
-    <t>$77,000,000 CASH PAYOUT!</t>
-  </si>
-  <si>
-    <t>Monopoly Millionaire</t>
-  </si>
-  <si>
-    <t>100X THE MONEY</t>
-  </si>
-  <si>
-    <t>Millionaire JINGLE JUMBO BUCK</t>
-  </si>
-  <si>
-    <t>Caesar's</t>
-  </si>
-  <si>
-    <t>MAX-A-MILLION</t>
-  </si>
-  <si>
-    <t>100X The Money</t>
-  </si>
-  <si>
-    <t>GOLDEN Riches</t>
-  </si>
-  <si>
     <t>$25.00 Games</t>
   </si>
   <si>
@@ -488,13 +452,13 @@
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>BILLIONAIRE CLUB</t>
+  </si>
+  <si>
     <t>THE NEW SUPER MAX THE MONEY</t>
   </si>
   <si>
     <t>$75,000,000 BLOWOUT!</t>
-  </si>
-  <si>
-    <t>BILLIONAIRE CLUB</t>
   </si>
 </sst>
 </file>
@@ -833,7 +797,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,10 +836,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1286</v>
+        <v>1008</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -892,10 +856,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1008</v>
+        <v>1338</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -912,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -932,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -952,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1317</v>
+        <v>1379</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -972,10 +936,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1012,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1052,10 +1016,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1072,10 +1036,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1092,13 +1056,13 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1417</v>
+        <v>1321</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1109,13 +1073,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>1384</v>
+        <v>1365</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1129,13 +1093,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>1321</v>
+        <v>1388</v>
       </c>
       <c r="E15">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1149,13 +1113,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>1247</v>
+        <v>1001</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1169,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>1365</v>
+        <v>1384</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1189,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>1001</v>
+        <v>1369</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1209,10 +1173,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1226,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>1346</v>
+        <v>1424</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1246,16 +1210,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1266,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
       <c r="D22">
-        <v>1424</v>
+        <v>1361</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1286,13 +1250,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>1351</v>
+        <v>1109</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1306,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1326,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>1357</v>
+        <v>1431</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1346,16 +1310,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1366,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>1312</v>
+        <v>1357</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1386,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1406,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>1431</v>
+        <v>1385</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1426,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>1389</v>
+        <v>1322</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1446,16 +1410,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>1319</v>
+        <v>1427</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1466,16 +1430,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>1347</v>
+        <v>1411</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1486,13 +1450,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1506,16 +1470,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>1339</v>
+        <v>1394</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1526,16 +1490,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>1427</v>
+        <v>1299</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1546,16 +1510,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>1256</v>
+        <v>1442</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1566,16 +1530,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>1418</v>
+        <v>1375</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1586,16 +1550,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>1411</v>
+        <v>1380</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1606,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>1395</v>
+        <v>1445</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>16472</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1626,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>1394</v>
+        <v>1418</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1646,16 +1610,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>1449</v>
+        <v>1395</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1666,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42">
-        <v>1322</v>
+        <v>1009</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1686,16 +1650,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>1442</v>
+        <v>1449</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1706,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>1299</v>
+        <v>1366</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1726,16 +1690,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>1445</v>
+        <v>1002</v>
       </c>
       <c r="E45">
-        <v>24259</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1746,16 +1710,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1766,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>1009</v>
+        <v>1339</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1786,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
-        <v>1380</v>
+        <v>1155</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1806,16 +1770,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>1002</v>
+        <v>1352</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1826,16 +1790,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
       </c>
       <c r="D50">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1846,16 +1810,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
       <c r="D51">
-        <v>1362</v>
+        <v>1420</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1866,16 +1830,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>1155</v>
+        <v>1381</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1886,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>1194</v>
+        <v>1413</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1906,16 +1870,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>1352</v>
+        <v>1412</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1926,16 +1890,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>1376</v>
+        <v>1419</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1946,13 +1910,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>1420</v>
+        <v>1294</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1966,13 +1930,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>1381</v>
+        <v>1045</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1986,16 +1950,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -2006,16 +1970,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59">
-        <v>1412</v>
+        <v>1095</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -2026,13 +1990,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2046,16 +2010,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>1294</v>
+        <v>1340</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -2066,16 +2030,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>1095</v>
+        <v>1358</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2086,16 +2050,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63">
-        <v>1419</v>
+        <v>1371</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2106,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>1425</v>
+        <v>1362</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2126,16 +2090,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
       </c>
       <c r="D65">
-        <v>1062</v>
+        <v>1262</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2146,16 +2110,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
       </c>
       <c r="D66">
-        <v>1340</v>
+        <v>1386</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2166,16 +2130,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
       </c>
       <c r="D67">
-        <v>1358</v>
+        <v>1329</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2186,16 +2150,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>78</v>
       </c>
       <c r="D68">
-        <v>1371</v>
+        <v>1297</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2206,13 +2170,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
         <v>79</v>
       </c>
-      <c r="C69" t="s">
-        <v>80</v>
-      </c>
       <c r="D69">
-        <v>1262</v>
+        <v>1390</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2226,13 +2190,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2246,16 +2210,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71">
-        <v>1386</v>
+        <v>1300</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2266,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72">
-        <v>1297</v>
+        <v>1010</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2286,16 +2250,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2306,16 +2270,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74">
-        <v>1300</v>
+        <v>1257</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2326,16 +2290,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75">
-        <v>1010</v>
+        <v>1382</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2346,16 +2310,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76">
-        <v>1316</v>
+        <v>1421</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2366,16 +2330,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77">
-        <v>1257</v>
+        <v>1414</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2386,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78">
-        <v>1421</v>
+        <v>1444</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -2406,16 +2370,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79">
-        <v>1396</v>
+        <v>1428</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2426,16 +2390,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80">
-        <v>1444</v>
+        <v>1426</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>9512</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2446,16 +2410,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81">
-        <v>1426</v>
+        <v>1324</v>
       </c>
       <c r="E81">
-        <v>11361</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2466,16 +2430,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82">
-        <v>1287</v>
+        <v>1377</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2486,16 +2450,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83">
-        <v>1414</v>
+        <v>1275</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2506,16 +2470,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84">
-        <v>1377</v>
+        <v>1446</v>
       </c>
       <c r="E84">
-        <v>546</v>
+        <v>2607</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2526,16 +2490,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85">
-        <v>1324</v>
+        <v>1120</v>
       </c>
       <c r="E85">
-        <v>13</v>
+        <v>465</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2546,16 +2510,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86">
-        <v>1249</v>
+        <v>1367</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2566,16 +2530,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -2586,16 +2550,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D88">
-        <v>1446</v>
+        <v>1353</v>
       </c>
       <c r="E88">
-        <v>3163</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2606,16 +2570,16 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2626,16 +2590,16 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90">
-        <v>1120</v>
+        <v>1359</v>
       </c>
       <c r="E90">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2646,16 +2610,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
         <v>102</v>
       </c>
       <c r="D91">
-        <v>1367</v>
+        <v>1336</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2666,16 +2630,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
         <v>103</v>
       </c>
       <c r="D92">
-        <v>1363</v>
+        <v>1330</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2686,16 +2650,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
         <v>104</v>
       </c>
       <c r="D93">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2706,16 +2670,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>105</v>
       </c>
       <c r="D94">
-        <v>1372</v>
+        <v>1011</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2726,16 +2690,16 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
       </c>
       <c r="D95">
-        <v>1353</v>
+        <v>1199</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -2746,16 +2710,16 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>107</v>
       </c>
       <c r="D96">
-        <v>1348</v>
+        <v>1005</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -2766,16 +2730,16 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
       </c>
       <c r="D97">
-        <v>1341</v>
+        <v>1383</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2786,16 +2750,16 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>109</v>
       </c>
       <c r="D98">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2806,16 +2770,16 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>110</v>
       </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
       <c r="D99">
-        <v>1336</v>
+        <v>1415</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2826,13 +2790,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100">
-        <v>1330</v>
+        <v>1387</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2846,16 +2810,16 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D101">
-        <v>1280</v>
+        <v>1326</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -2866,13 +2830,13 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102">
-        <v>1011</v>
+        <v>1429</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -2886,16 +2850,16 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D103">
-        <v>1199</v>
+        <v>1227</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>45564</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -2906,16 +2870,16 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104">
-        <v>1005</v>
+        <v>1447</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -2926,13 +2890,13 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105">
-        <v>1368</v>
+        <v>1391</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2946,16 +2910,16 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106">
-        <v>1387</v>
+        <v>1422</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -2966,16 +2930,16 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D107">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -2986,16 +2950,16 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108">
-        <v>1391</v>
+        <v>1354</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -3006,16 +2970,16 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109">
-        <v>1415</v>
+        <v>1301</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -3026,16 +2990,16 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
         <v>122</v>
       </c>
       <c r="D110">
-        <v>1447</v>
+        <v>1100</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -3046,16 +3010,16 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
       </c>
       <c r="D111">
-        <v>1227</v>
+        <v>1307</v>
       </c>
       <c r="E111">
-        <v>60177</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -3066,16 +3030,16 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
         <v>124</v>
       </c>
       <c r="D112">
-        <v>1326</v>
+        <v>1285</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -3086,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
         <v>125</v>
       </c>
       <c r="D113">
-        <v>1422</v>
+        <v>1006</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -3106,16 +3070,16 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
         <v>126</v>
       </c>
       <c r="D114">
-        <v>1373</v>
+        <v>1397</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -3126,16 +3090,16 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
         <v>127</v>
       </c>
       <c r="D115">
-        <v>1432</v>
+        <v>1364</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -3146,16 +3110,16 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
         <v>128</v>
       </c>
       <c r="D116">
-        <v>1354</v>
+        <v>1276</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>36184</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3166,16 +3130,16 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>129</v>
       </c>
       <c r="D117">
-        <v>1301</v>
+        <v>1150</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -3186,16 +3150,16 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
         <v>130</v>
       </c>
       <c r="D118">
-        <v>1345</v>
+        <v>1258</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -3206,13 +3170,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
         <v>131</v>
       </c>
-      <c r="C119" t="s">
-        <v>132</v>
-      </c>
       <c r="D119">
-        <v>1100</v>
+        <v>1423</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3226,16 +3190,16 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120">
-        <v>1307</v>
+        <v>1374</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3246,16 +3210,16 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121">
-        <v>1285</v>
+        <v>1142</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
@@ -3266,16 +3230,16 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122">
-        <v>1360</v>
+        <v>1342</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -3286,16 +3250,16 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123">
-        <v>1006</v>
+        <v>1360</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -3306,16 +3270,16 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="D124">
-        <v>1364</v>
+        <v>1331</v>
       </c>
       <c r="E124">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3326,16 +3290,16 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="D125">
-        <v>1397</v>
+        <v>1296</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
@@ -3346,16 +3310,16 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126">
-        <v>1276</v>
+        <v>1392</v>
       </c>
       <c r="E126">
-        <v>12995</v>
+        <v>5</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3366,16 +3330,16 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="D127">
-        <v>1258</v>
+        <v>1271</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -3386,16 +3350,16 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
         <v>141</v>
       </c>
       <c r="D128">
-        <v>1150</v>
+        <v>1315</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3406,16 +3370,16 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
       </c>
       <c r="D129">
-        <v>1423</v>
+        <v>1378</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -3426,13 +3390,13 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
       </c>
       <c r="D130">
-        <v>1374</v>
+        <v>1355</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3446,16 +3410,16 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D131">
-        <v>1142</v>
+        <v>1263</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -3466,16 +3430,16 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D132">
-        <v>1342</v>
+        <v>1308</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -3486,238 +3450,18 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D133">
-        <v>1030</v>
+        <v>1443</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" t="s">
-        <v>131</v>
-      </c>
-      <c r="C134" t="s">
-        <v>147</v>
-      </c>
-      <c r="D134">
-        <v>1349</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" t="s">
-        <v>149</v>
-      </c>
-      <c r="D135">
-        <v>1331</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" t="s">
-        <v>148</v>
-      </c>
-      <c r="C136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136">
-        <v>1296</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137">
-        <v>1392</v>
-      </c>
-      <c r="E137">
-        <v>7</v>
-      </c>
-      <c r="F137" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138">
-        <v>1271</v>
-      </c>
-      <c r="E138">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" t="s">
-        <v>153</v>
-      </c>
-      <c r="D139">
-        <v>1315</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" t="s">
-        <v>148</v>
-      </c>
-      <c r="C140" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140">
-        <v>1378</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" t="s">
-        <v>155</v>
-      </c>
-      <c r="D141">
-        <v>1355</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" t="s">
-        <v>156</v>
-      </c>
-      <c r="C142" t="s">
-        <v>157</v>
-      </c>
-      <c r="D142">
-        <v>1308</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" t="s">
-        <v>158</v>
-      </c>
-      <c r="D143">
-        <v>1443</v>
-      </c>
-      <c r="E143">
-        <v>2</v>
-      </c>
-      <c r="F143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>156</v>
-      </c>
-      <c r="C144" t="s">
-        <v>159</v>
-      </c>
-      <c r="D144">
-        <v>1263</v>
-      </c>
-      <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144" t="s">
         <v>9</v>
       </c>
     </row>
